--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book_pagaya_riverview.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book_pagaya_riverview.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="115">
   <si>
     <t>Product</t>
   </si>
@@ -68,255 +68,24 @@
     <t>Retorno YTD</t>
   </si>
   <si>
-    <t>Retorno ITD</t>
+    <t>Retorno LTD</t>
   </si>
   <si>
     <t>Retorno</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>1.6%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>-1.2%</t>
-  </si>
-  <si>
-    <t>-0.5%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
-    <t>-7.0%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>1.1%</t>
-  </si>
-  <si>
-    <t>1.4%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-1.1%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>-0.8%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>10.1%</t>
-  </si>
-  <si>
-    <t>4.6%</t>
-  </si>
-  <si>
-    <t>10.5%</t>
-  </si>
-  <si>
-    <t>15.6%</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
     <t>Pagaya Opportunity Fund</t>
   </si>
   <si>
-    <t>0.8%</t>
-  </si>
-  <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>2.2%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>8.0%</t>
-  </si>
-  <si>
-    <t>14.1%</t>
-  </si>
-  <si>
-    <t>11.0%</t>
-  </si>
-  <si>
-    <t>26.6%</t>
-  </si>
-  <si>
-    <t>30.6%</t>
-  </si>
-  <si>
     <t>Riverview ALF</t>
   </si>
   <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>-5.4%</t>
-  </si>
-  <si>
-    <t>8.8%</t>
-  </si>
-  <si>
-    <t>2.1%</t>
-  </si>
-  <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>3.7%</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>15.7%</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>12.5%</t>
-  </si>
-  <si>
-    <t>30.1%</t>
-  </si>
-  <si>
-    <t>51.4%</t>
-  </si>
-  <si>
     <t>Pagaya Opportunity Fund_spread</t>
   </si>
   <si>
-    <t>-1.0%</t>
-  </si>
-  <si>
-    <t>-0.3%</t>
-  </si>
-  <si>
-    <t>-0.6%</t>
-  </si>
-  <si>
-    <t>10.4%</t>
-  </si>
-  <si>
-    <t>-0.4%</t>
-  </si>
-  <si>
-    <t>-1.3%</t>
-  </si>
-  <si>
-    <t>-0.7%</t>
-  </si>
-  <si>
-    <t>-0.9%</t>
-  </si>
-  <si>
-    <t>-0.1%</t>
-  </si>
-  <si>
-    <t>-1.6%</t>
-  </si>
-  <si>
-    <t>-1.9%</t>
-  </si>
-  <si>
-    <t>9.0%</t>
-  </si>
-  <si>
-    <t>9.5%</t>
-  </si>
-  <si>
-    <t>10.3%</t>
-  </si>
-  <si>
     <t>Riverview ALF_spread</t>
   </si>
   <si>
-    <t>-4.2%</t>
-  </si>
-  <si>
-    <t>9.3%</t>
-  </si>
-  <si>
-    <t>7.7%</t>
-  </si>
-  <si>
-    <t>-0.2%</t>
-  </si>
-  <si>
-    <t>-1.4%</t>
-  </si>
-  <si>
-    <t>2.9%</t>
-  </si>
-  <si>
-    <t>-1.5%</t>
-  </si>
-  <si>
-    <t>10.6%</t>
-  </si>
-  <si>
-    <t>13.5%</t>
-  </si>
-  <si>
-    <t>12.6%</t>
-  </si>
-  <si>
-    <t>27.8%</t>
-  </si>
-  <si>
     <t>Sep-2018 a Jun-2021</t>
   </si>
   <si>
@@ -350,21 +119,6 @@
     <t>Maximo Drawdown</t>
   </si>
   <si>
-    <t>5.8%</t>
-  </si>
-  <si>
-    <t>6.3%</t>
-  </si>
-  <si>
-    <t>-8.1%</t>
-  </si>
-  <si>
-    <t>10.2%</t>
-  </si>
-  <si>
-    <t>7.1%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -500,6 +254,9 @@
     <t>Retorno_Negativo</t>
   </si>
   <si>
+    <t>Retorno100</t>
+  </si>
+  <si>
     <t>09-2018</t>
   </si>
   <si>
@@ -603,12 +360,18 @@
   </si>
   <si>
     <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>Daily returns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -661,8 +424,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -705,7 +471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11677650" y="5143500"/>
+          <a:off x="12372975" y="5143500"/>
           <a:ext cx="6857143" cy="6857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -743,7 +509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16821150" y="5143500"/>
+          <a:off x="17516475" y="5143500"/>
           <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -781,7 +547,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21964650" y="5143500"/>
+          <a:off x="22659975" y="5143500"/>
           <a:ext cx="5486411" cy="3657607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -799,8 +565,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -860,7 +626,7 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sumário Estatístico</a:t>
+            <a:t>Lâmina</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -875,8 +641,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -951,8 +717,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1027,8 +793,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1103,8 +869,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1179,8 +945,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1255,8 +1021,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2077,292 +1843,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A9:U47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="15" width="15.7109375" customWidth="1"/>
     <col min="18" max="31" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>59</v>
+      <c r="T9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" t="s">
-        <v>62</v>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>0.0311</v>
+      </c>
+      <c r="T10">
+        <v>0.027</v>
+      </c>
+      <c r="U10">
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11">
+        <v>-0.0699</v>
+      </c>
+      <c r="T11">
+        <v>0.0054</v>
+      </c>
+      <c r="U11">
+        <v>-0.0539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.003238999999999992</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-0.01124029999999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.008430099999999996</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.020459</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.003723422749441818</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.003723422749441818</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>0.0053</v>
+      </c>
+      <c r="T12">
+        <v>0.0081</v>
+      </c>
+      <c r="U12">
+        <v>0.0128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0162036000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.009579000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.01287830000000012</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.0004630999999999386</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.01245079999999987</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.00408659999999994</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.004378599999999899</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.006837099999999818</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.003887900000000055</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.0006660000000000554</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.01916889999999993</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.006023300000000065</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.100803254805393</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.1049020106869945</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13" t="s">
-        <v>110</v>
-      </c>
-      <c r="T13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" t="s">
-        <v>114</v>
+      <c r="S13">
+        <v>0.0579</v>
+      </c>
+      <c r="T13">
+        <v>0.0158</v>
+      </c>
+      <c r="U13">
+        <v>0.0706</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>2020</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>104</v>
+      <c r="B14" s="1">
+        <v>0.003758099999999986</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.01228330000000011</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.06992589999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.02493429999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.03108099999999991</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.01362969999999986</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.007486899999999963</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.002261800000000092</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.001971600000000073</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.02380409999999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.01683030000000008</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.005594600000000005</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.0461920675439198</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.155939718994061</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -2375,53 +2147,53 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>2021</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="B15" s="1">
+        <v>0.006250599999999995</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.004604460000000032</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.009448899999999982</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.002677999999999958</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.01074299999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.02468035556663462</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.1844687222724304</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="O15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="S15">
         <v>28</v>
@@ -2434,1135 +2206,1147 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="R16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" t="s">
-        <v>71</v>
+      <c r="R16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16">
+        <v>0.1845</v>
+      </c>
+      <c r="T16">
+        <v>0.3059</v>
+      </c>
+      <c r="U16">
+        <v>0.5138</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" t="s">
-        <v>111</v>
-      </c>
-      <c r="T17" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" t="s">
-        <v>68</v>
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17">
+        <v>0.0635</v>
+      </c>
+      <c r="T17">
+        <v>0.1019</v>
+      </c>
+      <c r="U17">
+        <v>0.1627</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>108</v>
+      <c r="R18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="S18">
-        <v>1.1</v>
+        <v>1.0973</v>
       </c>
       <c r="T18">
-        <v>6.45</v>
+        <v>6.4542</v>
       </c>
       <c r="U18">
-        <v>2.31</v>
+        <v>2.3063</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S19" t="s">
-        <v>112</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="R19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>-0.0814</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>-0.0539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.006599999999999939</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.007800000000000029</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.006199999999999983</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.007100000000000106</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.02798834083814961</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.02798834083814961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.006099899999999936</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.006599999999999939</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.007700100000000099</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.005400000000000071</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.006299999999999972</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.00540010000000013</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.007300000000000084</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.006299999999999972</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.006299999999999972</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.006699999999999928</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.07977400163240245</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.1099950844182622</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1">
+      <c r="T21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.006599999999999939</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.006599999999999939</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.02700000000000014</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0121</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.02160000000000006</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.007900000000000018</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.01380000000000003</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.006200100000000042</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.006699999999999928</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.007900000000000018</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.007900000000000018</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.008299999999999974</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.1406894353249544</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.2661596660585426</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22">
+        <v>-0.1115</v>
+      </c>
+      <c r="T22">
+        <v>0.2087</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.00760010000000011</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.005700000000000038</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.005600100000000108</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.005600000000000049</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.03138545808887483</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.3058986671914468</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23">
+        <v>0.872</v>
+      </c>
+      <c r="T23">
+        <v>1.1738</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="R24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24">
+        <v>0.0198</v>
+      </c>
+      <c r="T24">
+        <v>0.0241</v>
+      </c>
+      <c r="U24">
+        <v>0.0164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="2">
         <v>2018</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.001200099999999926</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.006092699999999951</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.005559400000000103</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.005331299999999928</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.01830017037337517</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.01830017037337517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.005008300000000077</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.005960599999999872</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.004759699999999922</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.01865819999999996</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.00740239999999992</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.01676870000000008</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.006856299999999926</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.008466000000000085</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.00538369999999988</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.01034669999999993</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.005300000000000082</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.005361399999999961</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.1048806598555807</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.1251001641731844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.01013240000000004</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-0.05393755</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.001302099999999973</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.01263229999999993</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.02650890000000006</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.01501200000000003</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0142618000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.01102340000000002</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.015625</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.01453919999999997</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.04615900000000006</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.03655619999999993</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.1567857920941733</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.3014998845983614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.02597009999999988</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.08754589999999984</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.0006886999999999865</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.02062890000000017</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.02062900000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.1631000144547887</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.5137745345892597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.003350148867817149</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.01925675166574847</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.01475448175665672</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-0.01309116779802022</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.02417490469858752</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.02417490469858752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-0.00994259418093002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-0.002950734910294406</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.006297202734030449</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.007233650096640343</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-0.006964091489680135</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.002204391533559003</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.002012587683568823</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-0.00142724180505438</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.0033988854731688</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.005630250253331193</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-0.01262685704008426</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.0006726484366712526</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-0.01910355286577359</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.004609525262879499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.002831259842386302</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.01911813377256855</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.1042130944190363</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-0.01252207092688762</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-0.009195203868561097</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-0.005652655994590416</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.006266185694325133</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.003929412454909409</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.004719095830660214</v>
+      </c>
+      <c r="K38" s="1">
+        <v>-0.01553431950506934</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-0.008782488090687379</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.002690348575857371</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.0903250662212336</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.09535094715873127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.001341117212750209</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.01035212594985113</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.003812773484621057</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.002914195783691342</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-0.004197901939464344</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.00654360404765697</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.1025184900501639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-0.002032317324187072</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.01753004294167737</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.01410843552229668</v>
+      </c>
+      <c r="M44" s="1">
+        <v>-0.01482440744802105</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.0145226735707773</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.0145226735707773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2">
         <v>2019</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1">
+      <c r="B45" s="1">
+        <v>-0.01101678836800024</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-0.003584068210610747</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.008015375588558027</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.01818667774953431</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-0.004986316372113997</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.01263048426301094</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.002466898438497234</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.001617838675194161</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.001490007001777593</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.009674256944874671</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-0.0136080486757395</v>
+      </c>
+      <c r="M45" s="1">
+        <v>-0.000657937047780166</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.003704027066043336</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.01828049301279866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2">
         <v>2020</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" t="s">
-        <v>57</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22">
-        <v>-0.11</v>
-      </c>
-      <c r="T22">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1">
+      <c r="B46" s="1">
+        <v>0.006350434432359719</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-0.04217226457748446</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.07658314536443922</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-0.01200272056462548</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-0.004434278199287767</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.001363713000911648</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.006724553937128341</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.008741827734030982</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.013626533925712</v>
+      </c>
+      <c r="K46" s="1">
+        <v>-0.00904948515052828</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.02884325929311893</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.03078934592528637</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.1057107274860984</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.1259236647140844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2">
         <v>2021</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" t="s">
-        <v>58</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S23">
-        <v>0.01</v>
-      </c>
-      <c r="T23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="R24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S24" t="s">
-        <v>42</v>
-      </c>
-      <c r="T24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" t="s">
-        <v>67</v>
-      </c>
-      <c r="O30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" t="s">
-        <v>64</v>
-      </c>
-      <c r="M36" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M37" t="s">
-        <v>37</v>
-      </c>
-      <c r="N37" t="s">
-        <v>83</v>
-      </c>
-      <c r="O37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" t="s">
-        <v>80</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" t="s">
-        <v>84</v>
-      </c>
-      <c r="O38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" t="s">
-        <v>34</v>
-      </c>
-      <c r="O39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" t="s">
-        <v>94</v>
-      </c>
-      <c r="N44" t="s">
-        <v>64</v>
-      </c>
-      <c r="O44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" t="s">
-        <v>81</v>
-      </c>
-      <c r="N45" t="s">
-        <v>20</v>
-      </c>
-      <c r="O45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" t="s">
-        <v>80</v>
-      </c>
-      <c r="L46" t="s">
-        <v>93</v>
-      </c>
-      <c r="M46" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" t="s">
-        <v>95</v>
-      </c>
-      <c r="O46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" t="s">
-        <v>96</v>
-      </c>
-      <c r="O47" t="s">
-        <v>98</v>
+      <c r="B47" s="1">
+        <v>0.01959700694836841</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.09257662536844391</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-0.008678200550815363</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.01790295588414259</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.009780923538426745</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.1350856958818245</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.2780198464718007</v>
       </c>
     </row>
   </sheetData>
@@ -3613,31 +3397,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -3656,11 +3440,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2018</v>
@@ -3679,11 +3463,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -3702,11 +3486,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3725,11 +3509,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3748,11 +3532,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -3771,11 +3555,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -3794,11 +3578,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -3817,11 +3601,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -3840,11 +3624,11 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -3863,11 +3647,11 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -3886,11 +3670,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -3909,11 +3693,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -3932,11 +3716,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -3955,11 +3739,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -3978,11 +3762,11 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -4001,11 +3785,11 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -4024,11 +3808,11 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -4047,11 +3831,11 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -4070,11 +3854,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -4093,11 +3877,11 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -4116,11 +3900,11 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -4139,11 +3923,11 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -4162,11 +3946,11 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -4185,11 +3969,11 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -4208,11 +3992,11 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>2020</v>
@@ -4231,11 +4015,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -4254,11 +4038,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -4277,11 +4061,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -4300,11 +4084,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -4323,11 +4107,11 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -4346,11 +4130,11 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -4369,11 +4153,11 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -4398,56 +4182,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4476,16 +4263,19 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="M2">
+        <v>0.32390356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -4514,16 +4304,19 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="M3">
+        <v>-1.12403035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -4552,16 +4345,19 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="M4">
+        <v>-0.8430123000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -4590,16 +4386,19 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="M5">
+        <v>2.0459056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -4628,16 +4427,19 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="M6">
+        <v>1.6203642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -4666,16 +4468,19 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="M7">
+        <v>0.9578943000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -4704,16 +4509,19 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="M8">
+        <v>1.2878299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -4742,16 +4550,19 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="M9">
+        <v>0.04631281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -4780,16 +4591,19 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="M10">
+        <v>1.2450814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -4818,16 +4632,19 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="M11">
+        <v>0.40866137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -4856,16 +4673,19 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
+      <c r="M12">
+        <v>0.4378557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -4894,16 +4714,19 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
+      <c r="M13">
+        <v>0.6837129599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -4932,16 +4755,19 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
+      <c r="M14">
+        <v>0.38878918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -4970,16 +4796,19 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
+      <c r="M15">
+        <v>0.06660223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -5008,16 +4837,19 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
+      <c r="M16">
+        <v>1.9168854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2">
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -5046,16 +4878,19 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
+      <c r="M17">
+        <v>0.6023288000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -5084,16 +4919,19 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
+      <c r="M18">
+        <v>0.37580729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -5122,16 +4960,19 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
+      <c r="M19">
+        <v>-1.2283325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -5160,16 +5001,19 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
+      <c r="M20">
+        <v>-6.9925904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -5198,16 +5042,19 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
+      <c r="M21">
+        <v>2.4934292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -5236,16 +5083,19 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
+      <c r="M22">
+        <v>3.1080961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
@@ -5274,16 +5124,19 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
+      <c r="M23">
+        <v>1.3629675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
@@ -5312,16 +5165,19 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1">
+      <c r="M24">
+        <v>0.7486939399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
@@ -5350,16 +5206,19 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1">
+      <c r="M25">
+        <v>0.22617579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -5388,16 +5247,19 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
+      <c r="M26">
+        <v>0.19716024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -5426,16 +5288,19 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1">
+      <c r="M27">
+        <v>2.3804069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -5464,16 +5329,19 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1">
+      <c r="M28">
+        <v>1.6830325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -5502,16 +5370,19 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1">
+      <c r="M29">
+        <v>0.5594610999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
@@ -5540,16 +5411,19 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1">
+      <c r="M30">
+        <v>0.625062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
@@ -5578,16 +5452,19 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1">
+      <c r="M31">
+        <v>-0.4604459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -5616,16 +5493,19 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1">
+      <c r="M32">
+        <v>0.9448886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -5654,16 +5534,19 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1">
+      <c r="M33">
+        <v>0.26780367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -5692,16 +5575,19 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1">
+      <c r="M34">
+        <v>1.0743022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -5725,18 +5611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1">
+    <row r="36" spans="1:13">
+      <c r="A36" s="2">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>105.474495</v>
@@ -5762,19 +5648,22 @@
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1">
+      <c r="M36">
+        <v>0.66000223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>106.17062</v>
@@ -5800,19 +5689,22 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1">
+      <c r="M37">
+        <v>0.7799983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>106.99876</v>
@@ -5838,19 +5730,22 @@
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1">
+      <c r="M38">
+        <v>0.6199956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>107.66215</v>
@@ -5876,19 +5771,22 @@
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1">
+      <c r="M39">
+        <v>0.7099986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>108.42655</v>
@@ -5914,19 +5812,22 @@
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1">
+      <c r="M40">
+        <v>0.6099939300000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>109.08795</v>
@@ -5952,19 +5853,22 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1">
+      <c r="M41">
+        <v>0.66000223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>109.80793</v>
@@ -5990,19 +5894,22 @@
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1">
+      <c r="M42">
+        <v>0.65000057</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>110.52168</v>
@@ -6028,19 +5935,22 @@
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1">
+      <c r="M43">
+        <v>0.7700085600000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>111.3727</v>
@@ -6066,19 +5976,22 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1">
+      <c r="M44">
+        <v>0.53999424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>111.97411</v>
@@ -6104,19 +6017,22 @@
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1">
+      <c r="M45">
+        <v>0.62999725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>112.67955</v>
@@ -6142,19 +6058,22 @@
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1">
+      <c r="M46">
+        <v>0.6399989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>113.400696</v>
@@ -6180,19 +6099,22 @@
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
+      <c r="M47">
+        <v>0.54000616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>114.01306</v>
@@ -6218,19 +6140,22 @@
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
+      <c r="M48">
+        <v>0.73000193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>114.84536</v>
@@ -6256,19 +6181,22 @@
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
+      <c r="M49">
+        <v>0.62999725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2">
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>115.568886</v>
@@ -6294,19 +6222,22 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
+      <c r="M50">
+        <v>0.62999725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>116.29697</v>
@@ -6332,19 +6263,22 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
+      <c r="M51">
+        <v>0.6700039000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>117.07616</v>
@@ -6370,19 +6304,22 @@
       <c r="L52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1">
+      <c r="M52">
+        <v>0.66000223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>117.84886</v>
@@ -6408,19 +6345,22 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1">
+      <c r="M53">
+        <v>0.66000223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>118.62666</v>
@@ -6446,19 +6386,22 @@
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1">
+      <c r="M54">
+        <v>2.699995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2">
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>121.82958</v>
@@ -6484,19 +6427,22 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1">
+      <c r="M55">
+        <v>1.2099981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2">
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>123.30372</v>
@@ -6522,19 +6468,22 @@
       <c r="L56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1">
+      <c r="M56">
+        <v>2.1600008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>125.96708</v>
@@ -6560,19 +6509,22 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1">
+      <c r="M57">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>126.96222</v>
@@ -6598,19 +6550,22 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1">
+      <c r="M58">
+        <v>1.3800025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2">
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>128.7143</v>
@@ -6636,19 +6591,22 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1">
+      <c r="M59">
+        <v>0.6200075</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2">
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>129.51233</v>
@@ -6674,19 +6632,22 @@
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1">
+      <c r="M60">
+        <v>0.6700039000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>130.38007</v>
@@ -6712,19 +6673,22 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1">
+      <c r="M61">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2">
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>131.41006</v>
@@ -6750,19 +6714,22 @@
       <c r="L62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1">
+      <c r="M62">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2">
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>132.4482</v>
@@ -6788,19 +6755,22 @@
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1">
+      <c r="M63">
+        <v>0.8299947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2">
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>133.54752</v>
@@ -6826,19 +6796,22 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1">
+      <c r="M64">
+        <v>0.7600069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2">
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>134.56248</v>
@@ -6864,19 +6837,22 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1">
+      <c r="M65">
+        <v>0.5699991999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2">
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>135.32948</v>
@@ -6902,19 +6878,22 @@
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1">
+      <c r="M66">
+        <v>0.5600095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2">
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>136.08734</v>
@@ -6940,19 +6919,22 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1">
+      <c r="M67">
+        <v>0.55999756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2">
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>136.84943</v>
@@ -6978,19 +6960,22 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="1">
+      <c r="M68">
+        <v>0.65000057</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>137.73895</v>
@@ -7011,18 +6996,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1">
+    <row r="70" spans="1:13">
+      <c r="A70" s="2">
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -7048,19 +7033,22 @@
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1">
+      <c r="M70">
+        <v>0.12000799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="2">
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>100.12</v>
@@ -7086,19 +7074,22 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1">
+      <c r="M71">
+        <v>0.60926676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="2">
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>100.73</v>
@@ -7124,19 +7115,22 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1">
+      <c r="M72">
+        <v>0.55594444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="2">
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>101.29</v>
@@ -7162,19 +7156,22 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1">
+      <c r="M73">
+        <v>0.5331278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="2">
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>101.83</v>
@@ -7200,19 +7197,22 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1">
+      <c r="M74">
+        <v>0.500834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="2">
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>102.34</v>
@@ -7238,19 +7238,22 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1">
+      <c r="M75">
+        <v>0.5960583699999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2">
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>102.95</v>
@@ -7276,19 +7279,22 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1">
+      <c r="M76">
+        <v>0.47596693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="2">
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>103.44</v>
@@ -7314,19 +7320,22 @@
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1">
+      <c r="M77">
+        <v>1.8658161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2">
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>105.37</v>
@@ -7352,19 +7361,22 @@
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1">
+      <c r="M78">
+        <v>0.740242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2">
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>106.15</v>
@@ -7390,19 +7402,22 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1">
+      <c r="M79">
+        <v>1.6768694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="2">
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>107.93</v>
@@ -7428,19 +7443,22 @@
       <c r="L80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1">
+      <c r="M80">
+        <v>0.68563223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2">
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>108.67</v>
@@ -7466,19 +7484,22 @@
       <c r="L81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1">
+      <c r="M81">
+        <v>0.8466005000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2">
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>109.59</v>
@@ -7504,19 +7525,22 @@
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1">
+      <c r="M82">
+        <v>0.538373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="2">
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>110.18</v>
@@ -7542,19 +7566,22 @@
       <c r="L83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1">
+      <c r="M83">
+        <v>1.0346651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2">
         <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>111.32</v>
@@ -7580,19 +7607,22 @@
       <c r="L84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1">
+      <c r="M84">
+        <v>0.5300045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2">
         <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>111.91</v>
@@ -7618,19 +7648,22 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1">
+      <c r="M85">
+        <v>0.5361438000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2">
         <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>112.51</v>
@@ -7656,19 +7689,22 @@
       <c r="L86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1">
+      <c r="M86">
+        <v>1.0132432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2">
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D87" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>113.65</v>
@@ -7694,19 +7730,22 @@
       <c r="L87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="1">
+      <c r="M87">
+        <v>-5.393755400000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2">
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>107.52</v>
@@ -7732,19 +7771,22 @@
       <c r="L88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="1">
+      <c r="M88">
+        <v>0.13021231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2">
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>107.66</v>
@@ -7770,19 +7812,22 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1">
+      <c r="M89">
+        <v>1.2632251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="2">
         <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>109.02</v>
@@ -7808,19 +7853,22 @@
       <c r="L90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1">
+      <c r="M90">
+        <v>2.6508927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2">
         <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>111.91</v>
@@ -7846,19 +7894,22 @@
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1">
+      <c r="M91">
+        <v>1.5012026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2">
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>113.59</v>
@@ -7884,19 +7935,22 @@
       <c r="L92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="1">
+      <c r="M92">
+        <v>1.4261842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2">
         <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>115.21</v>
@@ -7922,19 +7976,22 @@
       <c r="L93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="1">
+      <c r="M93">
+        <v>1.1023402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="2">
         <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>116.48</v>
@@ -7960,19 +8017,22 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="1">
+      <c r="M94">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="2">
         <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>118.3</v>
@@ -7998,19 +8058,22 @@
       <c r="L95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="1">
+      <c r="M95">
+        <v>1.4539242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="2">
         <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>120.02</v>
@@ -8036,19 +8099,22 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="1">
+      <c r="M96">
+        <v>4.615902999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="2">
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>125.56</v>
@@ -8074,19 +8140,22 @@
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="1">
+      <c r="M97">
+        <v>3.6556244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="2">
         <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>130.15</v>
@@ -8112,19 +8181,22 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="1">
+      <c r="M98">
+        <v>2.5970101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="2">
         <v>63</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>133.53</v>
@@ -8150,19 +8222,22 @@
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="1">
+      <c r="M99">
+        <v>8.754586999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="2">
         <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D100" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>145.22</v>
@@ -8188,19 +8263,22 @@
       <c r="L100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="1">
+      <c r="M100">
+        <v>0.06886720699999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="2">
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>145.32</v>
@@ -8226,19 +8304,22 @@
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="1">
+      <c r="M101">
+        <v>2.062893</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="2">
         <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>148.31781</v>
@@ -8264,19 +8345,22 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="1">
+      <c r="M102">
+        <v>2.0629048</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="2">
         <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>151.37746</v>

--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book_pagaya_riverview.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/book_pagaya_riverview.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saojoaocp.sharepoint.com/sites/ArmoryFrontOffice/Documentos Compartilhados/General/Programs/ciencia_de_dados2/Correlacao_de_fundos/Desenvolvimento/2Descritivas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_358BA963EB2C2274B5A6BF437014510AEDBF2928" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1303FB19-38A7-43B3-8752-FF6A36974D2A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-55170" yWindow="-60" windowWidth="23880" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="UnstackRetornosPercentuais" sheetId="4" r:id="rId4"/>
     <sheet name="StackRetornos1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="195">
   <si>
     <t>Product</t>
   </si>
@@ -68,24 +74,255 @@
     <t>Retorno YTD</t>
   </si>
   <si>
-    <t>Retorno LTD</t>
+    <t>Retorno ITD</t>
   </si>
   <si>
     <t>Retorno</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>1.6%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
+  </si>
+  <si>
+    <t>-1.2%</t>
+  </si>
+  <si>
+    <t>-0.5%</t>
+  </si>
+  <si>
+    <t>1.3%</t>
+  </si>
+  <si>
+    <t>-7.0%</t>
+  </si>
+  <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <t>1.4%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>-1.1%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>-0.8%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>2.0%</t>
+  </si>
+  <si>
+    <t>10.1%</t>
+  </si>
+  <si>
+    <t>4.6%</t>
+  </si>
+  <si>
+    <t>10.5%</t>
+  </si>
+  <si>
+    <t>15.6%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
     <t>Pagaya Opportunity Fund</t>
   </si>
   <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>2.7%</t>
+  </si>
+  <si>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>2.2%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>8.0%</t>
+  </si>
+  <si>
+    <t>14.1%</t>
+  </si>
+  <si>
+    <t>11.0%</t>
+  </si>
+  <si>
+    <t>26.6%</t>
+  </si>
+  <si>
+    <t>30.6%</t>
+  </si>
+  <si>
     <t>Riverview ALF</t>
   </si>
   <si>
+    <t>2.6%</t>
+  </si>
+  <si>
+    <t>-5.4%</t>
+  </si>
+  <si>
+    <t>8.8%</t>
+  </si>
+  <si>
+    <t>2.1%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>3.7%</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>15.7%</t>
+  </si>
+  <si>
+    <t>16.3%</t>
+  </si>
+  <si>
+    <t>12.5%</t>
+  </si>
+  <si>
+    <t>30.1%</t>
+  </si>
+  <si>
+    <t>51.4%</t>
+  </si>
+  <si>
     <t>Pagaya Opportunity Fund_spread</t>
   </si>
   <si>
+    <t>-1.0%</t>
+  </si>
+  <si>
+    <t>-0.3%</t>
+  </si>
+  <si>
+    <t>-0.6%</t>
+  </si>
+  <si>
+    <t>10.4%</t>
+  </si>
+  <si>
+    <t>-0.4%</t>
+  </si>
+  <si>
+    <t>-1.3%</t>
+  </si>
+  <si>
+    <t>-0.7%</t>
+  </si>
+  <si>
+    <t>-0.9%</t>
+  </si>
+  <si>
+    <t>-0.1%</t>
+  </si>
+  <si>
+    <t>-1.6%</t>
+  </si>
+  <si>
+    <t>-1.9%</t>
+  </si>
+  <si>
+    <t>9.0%</t>
+  </si>
+  <si>
+    <t>9.5%</t>
+  </si>
+  <si>
+    <t>10.3%</t>
+  </si>
+  <si>
     <t>Riverview ALF_spread</t>
   </si>
   <si>
+    <t>-4.2%</t>
+  </si>
+  <si>
+    <t>9.3%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>-0.2%</t>
+  </si>
+  <si>
+    <t>-1.4%</t>
+  </si>
+  <si>
+    <t>2.9%</t>
+  </si>
+  <si>
+    <t>-1.5%</t>
+  </si>
+  <si>
+    <t>10.6%</t>
+  </si>
+  <si>
+    <t>13.5%</t>
+  </si>
+  <si>
+    <t>12.6%</t>
+  </si>
+  <si>
+    <t>27.8%</t>
+  </si>
+  <si>
     <t>Sep-2018 a Jun-2021</t>
   </si>
   <si>
@@ -119,6 +356,21 @@
     <t>Maximo Drawdown</t>
   </si>
   <si>
+    <t>5.8%</t>
+  </si>
+  <si>
+    <t>6.3%</t>
+  </si>
+  <si>
+    <t>-8.1%</t>
+  </si>
+  <si>
+    <t>10.2%</t>
+  </si>
+  <si>
+    <t>7.1%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -254,9 +506,6 @@
     <t>Retorno_Negativo</t>
   </si>
   <si>
-    <t>Retorno100</t>
-  </si>
-  <si>
     <t>09-2018</t>
   </si>
   <si>
@@ -360,19 +609,13 @@
   </si>
   <si>
     <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>Daily returns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +669,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -438,6 +681,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,7 +709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="PairplotRegressaoLin.book_pagaya_riverview.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="PairplotRegressaoLin.book_pagaya_riverview.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -471,7 +728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12372975" y="5143500"/>
+          <a:off x="11677650" y="5143500"/>
           <a:ext cx="6857143" cy="6857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -496,7 +753,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Retorno_density_distributionbook_pagaya_riverview.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Retorno_density_distributionbook_pagaya_riverview.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -509,7 +772,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17516475" y="5143500"/>
+          <a:off x="16821150" y="5143500"/>
           <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -534,7 +797,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelationMatrixbook_pagaya_riverview.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelationMatrixbook_pagaya_riverview.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -547,7 +816,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22659975" y="5143500"/>
+          <a:off x="21964650" y="5143500"/>
           <a:ext cx="5486411" cy="3657607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -565,14 +834,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -626,7 +901,7 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Lâmina</a:t>
+            <a:t>Sumário Estatístico</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -641,14 +916,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -717,14 +998,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -793,14 +1080,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -869,14 +1162,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -945,14 +1244,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1021,14 +1326,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1109,7 +1420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexPagaya Opportunity Fund.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexPagaya Opportunity Fund.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1147,7 +1464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexPagaya Opportunity Fund.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexPagaya Opportunity Fund.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1185,7 +1508,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1223,7 +1552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1261,7 +1596,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="CorrelacaoTemporal_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="CorrelacaoTemporal_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1299,7 +1640,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="HistogramaCorrelações_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="HistogramaCorrelações_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1322,11 +1669,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1342,7 +1684,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="VolatilidadeTemporalbook_pagaya_riverviewIBOXHY Index.png"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexPagaya Opportunity Fund.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1380,7 +1728,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="HistogramaVolatilidadebook_pagaya_riverviewIBOXHY Index.png"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexPagaya Opportunity Fund.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1418,7 +1772,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="VolatilidadeTemporalbook_pagaya_riverviewPagaya Opportunity Fund.png"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1456,7 +1816,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="HistogramaVolatilidadebook_pagaya_riverviewPagaya Opportunity Fund.png"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1494,7 +1860,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="VolatilidadeTemporalbook_pagaya_riverviewRiverview ALF.png"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="CorrelacaoTemporal_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1532,7 +1904,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="HistogramaVolatilidadebook_pagaya_riverviewRiverview ALF.png"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="HistogramaCorrelações_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1546,6 +1924,187 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6096000" y="7620000"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66686</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CorrelacaoTemporal_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="3448050"/>
+          <a:ext cx="5486411" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170764</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>113843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="HistogramaCorrelações_book_pagaya_riverviewIBOXHY IndexRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="3124200"/>
+          <a:ext cx="5485714" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="CorrelacaoTemporal_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7191375"/>
+          <a:ext cx="5486411" cy="3657607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8839</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>94793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="HistogramaCorrelações_book_pagaya_riverviewPagaya Opportunity FundRiverview ALF.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="7105650"/>
           <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1601,7 +2160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1633,9 +2192,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1667,6 +2244,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1842,26 +2437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A9:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="16" width="10.7109375" style="1" customWidth="1"/>
     <col min="14" max="15" width="15.7109375" customWidth="1"/>
     <col min="18" max="31" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1880,261 +2469,261 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="U13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="S10">
-        <v>0.0311</v>
-      </c>
-      <c r="T10">
-        <v>0.027</v>
-      </c>
-      <c r="U10">
-        <v>0.08749999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11">
-        <v>-0.0699</v>
-      </c>
-      <c r="T11">
-        <v>0.0054</v>
-      </c>
-      <c r="U11">
-        <v>-0.0539</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.003238999999999992</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-0.01124029999999998</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-0.008430099999999996</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.020459</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.003723422749441818</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.003723422749441818</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12">
-        <v>0.0053</v>
-      </c>
-      <c r="T12">
-        <v>0.0081</v>
-      </c>
-      <c r="U12">
-        <v>0.0128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.0162036000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.009579000000000004</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.01287830000000012</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.0004630999999999386</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.01245079999999987</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.00408659999999994</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.004378599999999899</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.006837099999999818</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.003887900000000055</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.0006660000000000554</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.01916889999999993</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.006023300000000065</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.100803254805393</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.1049020106869945</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="S13">
-        <v>0.0579</v>
-      </c>
-      <c r="T13">
-        <v>0.0158</v>
-      </c>
-      <c r="U13">
-        <v>0.0706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.003758099999999986</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-0.01228330000000011</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-0.06992589999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.02493429999999996</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.03108099999999991</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.01362969999999986</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.007486899999999963</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.002261800000000092</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.001971600000000073</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.02380409999999999</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.01683030000000008</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.005594600000000005</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.0461920675439198</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.155939718994061</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>27</v>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -2146,54 +2735,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2021</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.006250599999999995</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-0.004604460000000032</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.009448899999999982</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.002677999999999958</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.01074299999999995</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.02468035556663462</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.1844687222724304</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
         <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="S15">
         <v>28</v>
@@ -2205,26 +2794,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="R16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16">
-        <v>0.1845</v>
-      </c>
-      <c r="T16">
-        <v>0.3059</v>
-      </c>
-      <c r="U16">
-        <v>0.5138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="2" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2239,339 +2828,327 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T18">
+        <v>6.45</v>
+      </c>
+      <c r="U18">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T19" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="S17">
-        <v>0.0635</v>
-      </c>
-      <c r="T17">
-        <v>0.1019</v>
-      </c>
-      <c r="U17">
-        <v>0.1627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="2" t="s">
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22">
+        <v>-0.11</v>
+      </c>
+      <c r="T22">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" t="s">
         <v>31</v>
       </c>
-      <c r="S18">
-        <v>1.0973</v>
-      </c>
-      <c r="T18">
-        <v>6.4542</v>
-      </c>
-      <c r="U18">
-        <v>2.3063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19">
-        <v>-0.0814</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>-0.0539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.006599999999999939</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.007800000000000029</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.006199999999999983</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.007100000000000106</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.02798834083814961</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.02798834083814961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.006099899999999936</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.006599999999999939</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.00649999999999995</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.007700100000000099</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.005400000000000071</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.006299999999999972</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.006399999999999961</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.00540010000000013</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.007300000000000084</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.006299999999999972</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.006299999999999972</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.006699999999999928</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.07977400163240245</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.1099950844182622</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.006599999999999939</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.006599999999999939</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.02700000000000014</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.0121</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.02160000000000006</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.007900000000000018</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.01380000000000003</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.006200100000000042</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.006699999999999928</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.007900000000000018</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.007900000000000018</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.008299999999999974</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.1406894353249544</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.2661596660585426</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22">
-        <v>-0.1115</v>
-      </c>
-      <c r="T22">
-        <v>0.2087</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.00760010000000011</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.005700000000000038</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.005600100000000108</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.005600000000000049</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.00649999999999995</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.03138545808887483</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.3058986671914468</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>35</v>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="S23">
-        <v>0.872</v>
+        <v>0.01</v>
       </c>
       <c r="T23">
-        <v>1.1738</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="R24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24">
-        <v>0.0198</v>
-      </c>
-      <c r="T24">
-        <v>0.0241</v>
-      </c>
-      <c r="U24">
-        <v>0.0164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="2" t="s">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2587,252 +3164,252 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2018</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.001200099999999926</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.006092699999999951</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.005559400000000103</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.005331299999999928</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.01830017037337517</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.01830017037337517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="2">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2019</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.005008300000000077</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.005960599999999872</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.004759699999999922</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.01865819999999996</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.00740239999999992</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.01676870000000008</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.006856299999999926</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.008466000000000085</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.00538369999999988</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.01034669999999993</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.005300000000000082</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.005361399999999961</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.1048806598555807</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.1251001641731844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="2">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2020</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.01013240000000004</v>
-      </c>
-      <c r="C30" s="1">
-        <v>-0.05393755</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.001302099999999973</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.01263229999999993</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.02650890000000006</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.01501200000000003</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.0142618000000001</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.01102340000000002</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.015625</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.01453919999999997</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.04615900000000006</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.03655619999999993</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.1567857920941733</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.3014998845983614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="2">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2021</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.02597009999999988</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.08754589999999984</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.0006886999999999865</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.02062890000000017</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.02062900000000001</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.1631000144547887</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.5137745345892597</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="2" t="s">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2848,252 +3425,252 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>2018</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.003350148867817149</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.01925675166574847</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.01475448175665672</v>
-      </c>
-      <c r="M36" s="1">
-        <v>-0.01309116779802022</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0.02417490469858752</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.02417490469858752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="2">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>2019</v>
       </c>
-      <c r="B37" s="1">
-        <v>-0.00994259418093002</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-0.002950734910294406</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-0.006297202734030449</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.007233650096640343</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-0.006964091489680135</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.002204391533559003</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.002012587683568823</v>
-      </c>
-      <c r="I37" s="1">
-        <v>-0.00142724180505438</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.0033988854731688</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.005630250253331193</v>
-      </c>
-      <c r="L37" s="1">
-        <v>-0.01262685704008426</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.0006726484366712526</v>
-      </c>
-      <c r="N37" s="1">
-        <v>-0.01910355286577359</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.004609525262879499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="2">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>2020</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.002831259842386302</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.01911813377256855</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.1042130944190363</v>
-      </c>
-      <c r="E38" s="1">
-        <v>-0.01252207092688762</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-0.009195203868561097</v>
-      </c>
-      <c r="G38" s="1">
-        <v>-0.005652655994590416</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.006266185694325133</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.003929412454909409</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.004719095830660214</v>
-      </c>
-      <c r="K38" s="1">
-        <v>-0.01553431950506934</v>
-      </c>
-      <c r="L38" s="1">
-        <v>-0.008782488090687379</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0.002690348575857371</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0.0903250662212336</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.09535094715873127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="2">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>2021</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.001341117212750209</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.01035212594985113</v>
-      </c>
-      <c r="D39" s="1">
-        <v>-0.003812773484621057</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.002914195783691342</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-0.004197901939464344</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0.00654360404765697</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.1025184900501639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="2" t="s">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3109,244 +3686,244 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>2018</v>
       </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>-0.002032317324187072</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.01753004294167737</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.01410843552229668</v>
-      </c>
-      <c r="M44" s="1">
-        <v>-0.01482440744802105</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0.0145226735707773</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.0145226735707773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="2">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>2019</v>
       </c>
-      <c r="B45" s="1">
-        <v>-0.01101678836800024</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-0.003584068210610747</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-0.008015375588558027</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.01818667774953431</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-0.004986316372113997</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.01263048426301094</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.002466898438497234</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.001617838675194161</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.001490007001777593</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.009674256944874671</v>
-      </c>
-      <c r="L45" s="1">
-        <v>-0.0136080486757395</v>
-      </c>
-      <c r="M45" s="1">
-        <v>-0.000657937047780166</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0.003704027066043336</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0.01828049301279866</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="2">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>2020</v>
       </c>
-      <c r="B46" s="1">
-        <v>0.006350434432359719</v>
-      </c>
-      <c r="C46" s="1">
-        <v>-0.04217226457748446</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.07658314536443922</v>
-      </c>
-      <c r="E46" s="1">
-        <v>-0.01200272056462548</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-0.004434278199287767</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.001363713000911648</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.006724553937128341</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.008741827734030982</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.013626533925712</v>
-      </c>
-      <c r="K46" s="1">
-        <v>-0.00904948515052828</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.02884325929311893</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.03078934592528637</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0.1057107274860984</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0.1259236647140844</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="2">
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L46" t="s">
+        <v>93</v>
+      </c>
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>2021</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.01959700694836841</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.09257662536844391</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-0.008678200550815363</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.01790295588414259</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0.009780923538426745</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0.1350856958818245</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0.2780198464718007</v>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" t="s">
+        <v>96</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3363,12 +3940,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3376,12 +3953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3389,39 +3968,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -3430,21 +4009,21 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.3238999999999947</v>
+        <v>0.32389999999999469</v>
       </c>
       <c r="F2">
-        <v>0.6599999999999966</v>
+        <v>0.65999999999999659</v>
       </c>
       <c r="G2">
         <v>0.1200099999999935</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>2018</v>
@@ -3456,18 +4035,18 @@
         <v>-1.124030000000005</v>
       </c>
       <c r="F3">
-        <v>0.7800000000000011</v>
+        <v>0.78000000000000114</v>
       </c>
       <c r="G3">
-        <v>0.6092699999999951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+        <v>0.60926999999999509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -3476,21 +4055,21 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>-0.8430099999999925</v>
+        <v>-0.84300999999999249</v>
       </c>
       <c r="F4">
-        <v>0.6200000000000045</v>
+        <v>0.62000000000000455</v>
       </c>
       <c r="G4">
-        <v>0.5559400000000068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+        <v>0.55594000000000676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3499,21 +4078,21 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>2.045900000000003</v>
+        <v>2.0459000000000032</v>
       </c>
       <c r="F5">
-        <v>0.710000000000008</v>
+        <v>0.71000000000000796</v>
       </c>
       <c r="G5">
-        <v>0.5331299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+        <v>0.53312999999999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -3522,21 +4101,21 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1.620360000000005</v>
+        <v>1.6203600000000049</v>
       </c>
       <c r="F6">
-        <v>0.6099899999999963</v>
+        <v>0.60998999999999626</v>
       </c>
       <c r="G6">
-        <v>0.5008300000000077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
+        <v>0.50083000000000766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -3545,21 +4124,21 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.9578999999999951</v>
+        <v>0.95789999999999509</v>
       </c>
       <c r="F7">
-        <v>0.6599999999999966</v>
+        <v>0.65999999999999659</v>
       </c>
       <c r="G7">
-        <v>0.5960599999999943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+        <v>0.59605999999999426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -3571,18 +4150,18 @@
         <v>1.287830000000014</v>
       </c>
       <c r="F8">
-        <v>0.6499999999999915</v>
+        <v>0.64999999999999147</v>
       </c>
       <c r="G8">
-        <v>0.4759699999999896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+        <v>0.47596999999998962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -3591,21 +4170,21 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0.04630999999999119</v>
+        <v>4.6309999999991192E-2</v>
       </c>
       <c r="F9">
-        <v>0.7700100000000134</v>
+        <v>0.77001000000001341</v>
       </c>
       <c r="G9">
-        <v>1.865819999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+        <v>1.8658199999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -3614,21 +4193,21 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>1.245079999999987</v>
+        <v>1.2450799999999871</v>
       </c>
       <c r="F10">
-        <v>0.5400000000000063</v>
+        <v>0.54000000000000625</v>
       </c>
       <c r="G10">
         <v>0.7402399999999858</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -3637,21 +4216,21 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>0.4086599999999976</v>
+        <v>0.40865999999999758</v>
       </c>
       <c r="F11">
-        <v>0.6299999999999955</v>
+        <v>0.62999999999999545</v>
       </c>
       <c r="G11">
-        <v>1.676870000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
+        <v>1.6768700000000081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -3660,21 +4239,21 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>0.4378599999999864</v>
+        <v>0.43785999999998643</v>
       </c>
       <c r="F12">
-        <v>0.6400000000000006</v>
+        <v>0.64000000000000057</v>
       </c>
       <c r="G12">
-        <v>0.6856299999999891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
+        <v>0.68562999999998908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -3686,18 +4265,18 @@
         <v>0.6837099999999765</v>
       </c>
       <c r="F13">
-        <v>0.5400100000000094</v>
+        <v>0.54001000000000943</v>
       </c>
       <c r="G13">
-        <v>0.8466000000000093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
+        <v>0.84660000000000935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -3706,21 +4285,21 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0.3887900000000002</v>
+        <v>0.38879000000000019</v>
       </c>
       <c r="F14">
-        <v>0.730000000000004</v>
+        <v>0.73000000000000398</v>
       </c>
       <c r="G14">
-        <v>0.5383699999999862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+        <v>0.53836999999998625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -3729,21 +4308,21 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>0.06660000000000821</v>
+        <v>6.6600000000008208E-2</v>
       </c>
       <c r="F15">
-        <v>0.6299999999999955</v>
+        <v>0.62999999999999545</v>
       </c>
       <c r="G15">
-        <v>1.034669999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
+        <v>1.0346699999999911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -3752,21 +4331,21 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>1.916889999999995</v>
+        <v>1.9168899999999951</v>
       </c>
       <c r="F16">
-        <v>0.6299999999999955</v>
+        <v>0.62999999999999545</v>
       </c>
       <c r="G16">
-        <v>0.5300000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -3775,21 +4354,21 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>0.6023300000000091</v>
+        <v>0.60233000000000914</v>
       </c>
       <c r="F17">
-        <v>0.6699999999999875</v>
+        <v>0.66999999999998749</v>
       </c>
       <c r="G17">
-        <v>0.536139999999989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
+        <v>0.53613999999998896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -3798,21 +4377,21 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.3758100000000013</v>
+        <v>0.37581000000000131</v>
       </c>
       <c r="F18">
-        <v>0.6599999999999966</v>
+        <v>0.65999999999999659</v>
       </c>
       <c r="G18">
-        <v>1.01324000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
+        <v>1.0132400000000099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -3821,21 +4400,21 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>-1.228330000000014</v>
+        <v>-1.2283300000000139</v>
       </c>
       <c r="F19">
-        <v>0.6599999999999966</v>
+        <v>0.65999999999999659</v>
       </c>
       <c r="G19">
-        <v>-5.393754999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
+        <v>-5.3937549999999987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -3844,21 +4423,21 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>-6.992589999999993</v>
+        <v>-6.9925899999999928</v>
       </c>
       <c r="F20">
-        <v>2.700000000000017</v>
+        <v>2.7000000000000171</v>
       </c>
       <c r="G20">
-        <v>0.1302099999999911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
+        <v>0.13020999999999111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -3867,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>2.493429999999989</v>
+        <v>2.4934299999999889</v>
       </c>
       <c r="F21">
         <v>1.209999999999994</v>
@@ -3876,12 +4455,12 @@
         <v>1.263229999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -3890,21 +4469,21 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>3.108099999999993</v>
+        <v>3.1080999999999932</v>
       </c>
       <c r="F22">
-        <v>2.160000000000011</v>
+        <v>2.1600000000000108</v>
       </c>
       <c r="G22">
         <v>2.650890000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -3916,18 +4495,18 @@
         <v>1.36296999999999</v>
       </c>
       <c r="F23">
-        <v>0.7900000000000063</v>
+        <v>0.79000000000000625</v>
       </c>
       <c r="G23">
         <v>1.501199999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -3939,18 +4518,18 @@
         <v>0.7486899999999963</v>
       </c>
       <c r="F24">
-        <v>1.38000000000001</v>
+        <v>1.3800000000000101</v>
       </c>
       <c r="G24">
         <v>1.426180000000016</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -3959,21 +4538,21 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>0.2261800000000136</v>
+        <v>0.22618000000001359</v>
       </c>
       <c r="F25">
-        <v>0.6200100000000077</v>
+        <v>0.62001000000000772</v>
       </c>
       <c r="G25">
-        <v>1.102339999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
+        <v>1.1023399999999981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -3982,21 +4561,21 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>0.1971600000000109</v>
+        <v>0.19716000000001091</v>
       </c>
       <c r="F26">
-        <v>0.6699999999999875</v>
+        <v>0.66999999999998749</v>
       </c>
       <c r="G26">
         <v>1.5625</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>2020</v>
@@ -4005,21 +4584,21 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>2.380409999999998</v>
+        <v>2.3804099999999981</v>
       </c>
       <c r="F27">
-        <v>0.7900000000000063</v>
+        <v>0.79000000000000625</v>
       </c>
       <c r="G27">
         <v>1.453919999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -4031,18 +4610,18 @@
         <v>1.683030000000002</v>
       </c>
       <c r="F28">
-        <v>0.7900000000000063</v>
+        <v>0.79000000000000625</v>
       </c>
       <c r="G28">
-        <v>4.615900000000011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
+        <v>4.6159000000000114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -4054,18 +4633,18 @@
         <v>0.5594600000000014</v>
       </c>
       <c r="F29">
-        <v>0.8299999999999983</v>
+        <v>0.82999999999999829</v>
       </c>
       <c r="G29">
         <v>3.655619999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -4074,21 +4653,21 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.6250600000000048</v>
+        <v>0.62506000000000483</v>
       </c>
       <c r="F30">
-        <v>0.7600100000000083</v>
+        <v>0.76001000000000829</v>
       </c>
       <c r="G30">
-        <v>2.597009999999983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
+        <v>2.5970099999999832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -4097,21 +4676,21 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>-0.4604460000000046</v>
+        <v>-0.46044600000000457</v>
       </c>
       <c r="F31">
-        <v>0.5700000000000074</v>
+        <v>0.57000000000000739</v>
       </c>
       <c r="G31">
         <v>8.754589999999979</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -4123,18 +4702,18 @@
         <v>0.9448900000000009</v>
       </c>
       <c r="F32">
-        <v>0.5600100000000054</v>
+        <v>0.56001000000000545</v>
       </c>
       <c r="G32">
-        <v>0.06887000000000398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
+        <v>6.8870000000003984E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -4143,21 +4722,21 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>0.267799999999994</v>
+        <v>0.26779999999999399</v>
       </c>
       <c r="F33">
-        <v>0.5600000000000023</v>
+        <v>0.56000000000000227</v>
       </c>
       <c r="G33">
-        <v>2.06289000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
+        <v>2.0628900000000101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -4169,10 +4748,10 @@
         <v>1.074299999999994</v>
       </c>
       <c r="F34">
-        <v>0.6499999999999915</v>
+        <v>0.64999999999999147</v>
       </c>
       <c r="G34">
-        <v>2.062899999999999</v>
+        <v>2.0628999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -4181,66 +4760,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2">
+      <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>276.7841</v>
+        <v>276.78410000000002</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -4255,7 +4831,7 @@
         <v>1.003239</v>
       </c>
       <c r="J2">
-        <v>0.0032390356</v>
+        <v>3.2390356000000001E-3</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4263,25 +4839,22 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0.32390356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>277.6806</v>
+        <v>277.68060000000003</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -4293,10 +4866,10 @@
         <v>2018</v>
       </c>
       <c r="I3">
-        <v>0.9887597</v>
+        <v>0.98875970000000002</v>
       </c>
       <c r="J3">
-        <v>-0.0112403035</v>
+        <v>-1.12403035E-2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -4304,25 +4877,22 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>-1.12403035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>274.5594</v>
+        <v>274.55939999999998</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -4337,7 +4907,7 @@
         <v>0.9915699</v>
       </c>
       <c r="J4">
-        <v>-0.008430123000000001</v>
+        <v>-8.4301230000000012E-3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4345,19 +4915,16 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>-0.8430123000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -4378,7 +4945,7 @@
         <v>1.020459</v>
       </c>
       <c r="J5">
-        <v>0.020459056</v>
+        <v>2.0459056E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4386,25 +4953,22 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>2.0459056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>277.8147</v>
+        <v>277.81470000000002</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -4416,10 +4980,10 @@
         <v>2019</v>
       </c>
       <c r="I6">
-        <v>1.0162036</v>
+        <v>1.0162036000000001</v>
       </c>
       <c r="J6">
-        <v>0.016203642</v>
+        <v>1.6203642000000001E-2</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4427,25 +4991,22 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>1.6203642</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>282.3163</v>
+        <v>282.31630000000001</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -4460,7 +5021,7 @@
         <v>1.009579</v>
       </c>
       <c r="J7">
-        <v>0.009578943000000001</v>
+        <v>9.5789430000000012E-3</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4468,19 +5029,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0.9578943000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -4498,10 +5056,10 @@
         <v>2019</v>
       </c>
       <c r="I8">
-        <v>1.0128783</v>
+        <v>1.0128782999999999</v>
       </c>
       <c r="J8">
-        <v>0.012878299</v>
+        <v>1.2878298999999999E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4509,25 +5067,22 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>1.2878299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>288.6912</v>
+        <v>288.69119999999998</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -4539,10 +5094,10 @@
         <v>2019</v>
       </c>
       <c r="I9">
-        <v>1.0004631</v>
+        <v>1.0004630999999999</v>
       </c>
       <c r="J9">
-        <v>0.0004631281</v>
+        <v>4.6312810000000002E-4</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4550,25 +5105,22 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0.04631281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>288.8249</v>
+        <v>288.82490000000001</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -4580,10 +5132,10 @@
         <v>2019</v>
       </c>
       <c r="I10">
-        <v>1.0124508</v>
+        <v>1.0124508000000001</v>
       </c>
       <c r="J10">
-        <v>0.012450814</v>
+        <v>1.2450813999999999E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4591,25 +5143,22 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>1.2450814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>292.421</v>
+        <v>292.42099999999999</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -4621,10 +5170,10 @@
         <v>2019</v>
       </c>
       <c r="I11">
-        <v>1.0040866</v>
+        <v>1.0040865999999999</v>
       </c>
       <c r="J11">
-        <v>0.0040866137</v>
+        <v>4.0866137E-3</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4632,25 +5181,22 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0.40866137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>293.616</v>
+        <v>293.61599999999999</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -4662,10 +5208,10 @@
         <v>2019</v>
       </c>
       <c r="I12">
-        <v>1.0043786</v>
+        <v>1.0043785999999999</v>
       </c>
       <c r="J12">
-        <v>0.004378557</v>
+        <v>4.3785569999999999E-3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4673,25 +5219,22 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0.4378557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>294.9016</v>
+        <v>294.90159999999997</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -4706,7 +5249,7 @@
         <v>1.0068371</v>
       </c>
       <c r="J13">
-        <v>0.006837129599999999</v>
+        <v>6.8371295999999993E-3</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4714,25 +5257,22 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0.6837129599999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>296.9179</v>
+        <v>296.91789999999997</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -4744,10 +5284,10 @@
         <v>2019</v>
       </c>
       <c r="I14">
-        <v>1.0038879</v>
+        <v>1.0038879000000001</v>
       </c>
       <c r="J14">
-        <v>0.0038878918</v>
+        <v>3.8878917999999999E-3</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4755,25 +5295,22 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0.38878918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>298.0723</v>
+        <v>298.07229999999998</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -4785,10 +5322,10 @@
         <v>2019</v>
       </c>
       <c r="I15">
-        <v>1.000666</v>
+        <v>1.0006660000000001</v>
       </c>
       <c r="J15">
-        <v>0.0006660222999999999</v>
+        <v>6.6602229999999994E-4</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4796,25 +5333,22 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0.06660223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>298.2708</v>
+        <v>298.27080000000001</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -4826,10 +5360,10 @@
         <v>2019</v>
       </c>
       <c r="I16">
-        <v>1.0191689</v>
+        <v>1.0191688999999999</v>
       </c>
       <c r="J16">
-        <v>0.019168854</v>
+        <v>1.9168853999999999E-2</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4837,25 +5371,22 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>1.9168854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>303.9883</v>
+        <v>303.98829999999998</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -4867,10 +5398,10 @@
         <v>2019</v>
       </c>
       <c r="I17">
-        <v>1.0060233</v>
+        <v>1.0060233000000001</v>
       </c>
       <c r="J17">
-        <v>0.006023288000000001</v>
+        <v>6.0232880000000008E-3</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4878,19 +5409,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0.6023288000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -4911,7 +5439,7 @@
         <v>1.0037581</v>
       </c>
       <c r="J18">
-        <v>0.0037580729</v>
+        <v>3.7580729000000002E-3</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4919,25 +5447,22 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0.37580729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>306.9686</v>
+        <v>306.96859999999998</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -4949,10 +5474,10 @@
         <v>2020</v>
       </c>
       <c r="I19">
-        <v>0.9877166999999999</v>
+        <v>0.98771669999999989</v>
       </c>
       <c r="J19">
-        <v>-0.012283325</v>
+        <v>-1.2283324999999999E-2</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4960,25 +5485,22 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>-1.2283325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>303.198</v>
+        <v>303.19799999999998</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -4990,10 +5512,10 @@
         <v>2020</v>
       </c>
       <c r="I20">
-        <v>0.9300741</v>
+        <v>0.93007410000000001</v>
       </c>
       <c r="J20">
-        <v>-0.069925904</v>
+        <v>-6.9925903999999997E-2</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5001,19 +5523,16 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>-6.9925904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -5034,7 +5553,7 @@
         <v>1.0249343</v>
       </c>
       <c r="J21">
-        <v>0.024934292</v>
+        <v>2.4934292E-2</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -5042,25 +5561,22 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>2.4934292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>289.028</v>
+        <v>289.02800000000002</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -5072,10 +5588,10 @@
         <v>2020</v>
       </c>
       <c r="I22">
-        <v>1.031081</v>
+        <v>1.0310809999999999</v>
       </c>
       <c r="J22">
-        <v>0.031080961</v>
+        <v>3.1080961000000001E-2</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -5083,25 +5599,22 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>3.1080961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>298.0113</v>
+        <v>298.01130000000001</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -5113,10 +5626,10 @@
         <v>2020</v>
       </c>
       <c r="I23">
-        <v>1.0136297</v>
+        <v>1.0136297000000001</v>
       </c>
       <c r="J23">
-        <v>0.013629675</v>
+        <v>1.3629675000000001E-2</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -5124,25 +5637,22 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>1.3629675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>302.0731</v>
+        <v>302.07310000000001</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -5157,7 +5667,7 @@
         <v>1.0074869</v>
       </c>
       <c r="J24">
-        <v>0.007486939399999999</v>
+        <v>7.486939399999999E-3</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -5165,19 +5675,16 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0.7486939399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
@@ -5195,10 +5702,10 @@
         <v>2020</v>
       </c>
       <c r="I25">
-        <v>1.0022618</v>
+        <v>1.0022618000000001</v>
       </c>
       <c r="J25">
-        <v>0.0022617579</v>
+        <v>2.2617579E-3</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -5206,25 +5713,22 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0.22617579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>305.023</v>
+        <v>305.02300000000002</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -5236,10 +5740,10 @@
         <v>2020</v>
       </c>
       <c r="I26">
-        <v>1.0019716</v>
+        <v>1.0019716000000001</v>
       </c>
       <c r="J26">
-        <v>0.0019716024</v>
+        <v>1.9716024E-3</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -5247,25 +5751,22 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0.19716024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>305.6244</v>
+        <v>305.62439999999998</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -5280,7 +5781,7 @@
         <v>1.0238041</v>
       </c>
       <c r="J27">
-        <v>0.023804069</v>
+        <v>2.3804069000000001E-2</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5288,25 +5789,22 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>2.3804069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>312.8995</v>
+        <v>312.89949999999999</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -5318,10 +5816,10 @@
         <v>2020</v>
       </c>
       <c r="I28">
-        <v>1.0168303</v>
+        <v>1.0168303000000001</v>
       </c>
       <c r="J28">
-        <v>0.016830325</v>
+        <v>1.6830325E-2</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -5329,25 +5827,22 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>1.6830325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>318.1657</v>
+        <v>318.16570000000002</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -5362,7 +5857,7 @@
         <v>1.0055946</v>
       </c>
       <c r="J29">
-        <v>0.005594610999999999</v>
+        <v>5.5946109999999993E-3</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5370,25 +5865,22 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0.5594610999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>319.9457</v>
+        <v>319.94569999999999</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
@@ -5403,7 +5895,7 @@
         <v>1.0062506</v>
       </c>
       <c r="J30">
-        <v>0.00625062</v>
+        <v>6.2506200000000001E-3</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -5411,25 +5903,22 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0.625062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>321.9456</v>
+        <v>321.94560000000001</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
@@ -5441,10 +5930,10 @@
         <v>2021</v>
       </c>
       <c r="I31">
-        <v>0.99539554</v>
+        <v>0.99539553999999997</v>
       </c>
       <c r="J31">
-        <v>-0.004604459</v>
+        <v>-4.604459E-3</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5452,25 +5941,22 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>-0.4604459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>320.4632</v>
+        <v>320.46319999999997</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -5485,7 +5971,7 @@
         <v>1.0094489</v>
       </c>
       <c r="J32">
-        <v>0.009448886</v>
+        <v>9.4488860000000001E-3</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -5493,25 +5979,22 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0.9448886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>323.4912</v>
+        <v>323.49119999999999</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -5526,7 +6009,7 @@
         <v>1.002678</v>
       </c>
       <c r="J33">
-        <v>0.0026780367</v>
+        <v>2.6780367000000002E-3</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -5534,25 +6017,22 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0.26780367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="2">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>324.3575</v>
+        <v>324.35750000000002</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -5564,10 +6044,10 @@
         <v>2021</v>
       </c>
       <c r="I34">
-        <v>1.010743</v>
+        <v>1.0107429999999999</v>
       </c>
       <c r="J34">
-        <v>0.010743022</v>
+        <v>1.0743022E-2</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -5575,25 +6055,22 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>1.0743022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="2">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35">
-        <v>327.8421</v>
+        <v>327.84210000000002</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -5611,18 +6088,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>105.474495</v>
@@ -5637,10 +6114,10 @@
         <v>2018</v>
       </c>
       <c r="I36">
-        <v>1.0066</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="J36">
-        <v>0.0066000223</v>
+        <v>6.6000223000000002E-3</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -5648,22 +6125,19 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>0.66000223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>106.17062</v>
@@ -5681,7 +6155,7 @@
         <v>1.0078</v>
       </c>
       <c r="J37">
-        <v>0.007799983000000001</v>
+        <v>7.7999830000000008E-3</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -5689,22 +6163,19 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37">
-        <v>0.7799983</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>106.99876</v>
@@ -5722,7 +6193,7 @@
         <v>1.0062</v>
       </c>
       <c r="J38">
-        <v>0.006199956</v>
+        <v>6.1999560000000004E-3</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -5730,22 +6201,19 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38">
-        <v>0.6199956</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="2">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>107.66215</v>
@@ -5760,10 +6228,10 @@
         <v>2018</v>
       </c>
       <c r="I39">
-        <v>1.0071</v>
+        <v>1.0071000000000001</v>
       </c>
       <c r="J39">
-        <v>0.007099986</v>
+        <v>7.099986E-3</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -5771,25 +6239,22 @@
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>0.7099986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>108.42655</v>
+        <v>108.42655000000001</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
@@ -5801,10 +6266,10 @@
         <v>2019</v>
       </c>
       <c r="I40">
-        <v>1.0060999</v>
+        <v>1.0060998999999999</v>
       </c>
       <c r="J40">
-        <v>0.006099939300000001</v>
+        <v>6.0999393000000009E-3</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -5812,25 +6277,22 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>0.6099939300000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="2">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E41">
-        <v>109.08795</v>
+        <v>109.08795000000001</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
@@ -5842,10 +6304,10 @@
         <v>2019</v>
       </c>
       <c r="I41">
-        <v>1.0066</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="J41">
-        <v>0.0066000223</v>
+        <v>6.6000223000000002E-3</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -5853,22 +6315,19 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41">
-        <v>0.66000223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="2">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>109.80793</v>
@@ -5886,7 +6345,7 @@
         <v>1.0065</v>
       </c>
       <c r="J42">
-        <v>0.006500005699999999</v>
+        <v>6.5000056999999986E-3</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -5894,22 +6353,19 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42">
-        <v>0.65000057</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="2">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>110.52168</v>
@@ -5924,10 +6380,10 @@
         <v>2019</v>
       </c>
       <c r="I43">
-        <v>1.0077001</v>
+        <v>1.0077001000000001</v>
       </c>
       <c r="J43">
-        <v>0.007700085600000001</v>
+        <v>7.7000856000000008E-3</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -5935,25 +6391,22 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43">
-        <v>0.7700085600000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="2">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E44">
-        <v>111.3727</v>
+        <v>111.37269999999999</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -5965,10 +6418,10 @@
         <v>2019</v>
       </c>
       <c r="I44">
-        <v>1.0054</v>
+        <v>1.0054000000000001</v>
       </c>
       <c r="J44">
-        <v>0.0053999424</v>
+        <v>5.3999423999999997E-3</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -5976,22 +6429,19 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <v>0.53999424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="2">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
         <v>48</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
       </c>
       <c r="E45">
         <v>111.97411</v>
@@ -6009,7 +6459,7 @@
         <v>1.0063</v>
       </c>
       <c r="J45">
-        <v>0.0062999725</v>
+        <v>6.2999724999999998E-3</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -6017,25 +6467,22 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45">
-        <v>0.62999725</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="2">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>112.67955</v>
+        <v>112.67955000000001</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -6050,7 +6497,7 @@
         <v>1.0064</v>
       </c>
       <c r="J46">
-        <v>0.006399989</v>
+        <v>6.399989E-3</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -6058,22 +6505,19 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46">
-        <v>0.6399989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="2">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>113.400696</v>
@@ -6088,10 +6532,10 @@
         <v>2019</v>
       </c>
       <c r="I47">
-        <v>1.0054001</v>
+        <v>1.0054000999999999</v>
       </c>
       <c r="J47">
-        <v>0.0054000616</v>
+        <v>5.4000615999999996E-3</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -6099,22 +6543,19 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47">
-        <v>0.54000616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>114.01306</v>
@@ -6129,10 +6570,10 @@
         <v>2019</v>
       </c>
       <c r="I48">
-        <v>1.0073</v>
+        <v>1.0073000000000001</v>
       </c>
       <c r="J48">
-        <v>0.0073000193</v>
+        <v>7.3000193000000001E-3</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -6140,22 +6581,19 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48">
-        <v>0.73000193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>114.84536</v>
@@ -6173,7 +6611,7 @@
         <v>1.0063</v>
       </c>
       <c r="J49">
-        <v>0.0062999725</v>
+        <v>6.2999724999999998E-3</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -6181,25 +6619,22 @@
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49">
-        <v>0.62999725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E50">
-        <v>115.568886</v>
+        <v>115.56888600000001</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -6214,7 +6649,7 @@
         <v>1.0063</v>
       </c>
       <c r="J50">
-        <v>0.0062999725</v>
+        <v>6.2999724999999998E-3</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -6222,22 +6657,19 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50">
-        <v>0.62999725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="2">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E51">
         <v>116.29697</v>
@@ -6252,10 +6684,10 @@
         <v>2019</v>
       </c>
       <c r="I51">
-        <v>1.0067</v>
+        <v>1.0066999999999999</v>
       </c>
       <c r="J51">
-        <v>0.006700039000000001</v>
+        <v>6.7000390000000014E-3</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -6263,22 +6695,19 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51">
-        <v>0.6700039000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>117.07616</v>
@@ -6293,10 +6722,10 @@
         <v>2020</v>
       </c>
       <c r="I52">
-        <v>1.0066</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="J52">
-        <v>0.0066000223</v>
+        <v>6.6000223000000002E-3</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -6304,22 +6733,19 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52">
-        <v>0.66000223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="2">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>117.84886</v>
@@ -6334,10 +6760,10 @@
         <v>2020</v>
       </c>
       <c r="I53">
-        <v>1.0066</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="J53">
-        <v>0.0066000223</v>
+        <v>6.6000223000000002E-3</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -6345,22 +6771,19 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53">
-        <v>0.66000223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="2">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E54">
         <v>118.62666</v>
@@ -6375,10 +6798,10 @@
         <v>2020</v>
       </c>
       <c r="I54">
-        <v>1.027</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="J54">
-        <v>0.02699995</v>
+        <v>2.6999950000000002E-2</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -6386,25 +6809,22 @@
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54">
-        <v>2.699995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="2">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>121.82958</v>
+        <v>121.82958000000001</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -6419,7 +6839,7 @@
         <v>1.0121</v>
       </c>
       <c r="J55">
-        <v>0.012099981</v>
+        <v>1.2099980999999999E-2</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -6427,22 +6847,19 @@
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55">
-        <v>1.2099981</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="2">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <v>123.30372</v>
@@ -6457,10 +6874,10 @@
         <v>2020</v>
       </c>
       <c r="I56">
-        <v>1.0216</v>
+        <v>1.0216000000000001</v>
       </c>
       <c r="J56">
-        <v>0.021600008</v>
+        <v>2.1600008E-2</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -6468,22 +6885,19 @@
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56">
-        <v>2.1600008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="2">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <v>125.96708</v>
@@ -6501,7 +6915,7 @@
         <v>1.0079</v>
       </c>
       <c r="J57">
-        <v>0.007900000000000001</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -6509,22 +6923,19 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="2">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <v>126.96222</v>
@@ -6542,7 +6953,7 @@
         <v>1.0138</v>
       </c>
       <c r="J58">
-        <v>0.013800025</v>
+        <v>1.3800025E-2</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -6550,25 +6961,22 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58">
-        <v>1.3800025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="2">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E59">
-        <v>128.7143</v>
+        <v>128.71430000000001</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -6583,7 +6991,7 @@
         <v>1.0062001</v>
       </c>
       <c r="J59">
-        <v>0.006200075</v>
+        <v>6.2000750000000002E-3</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -6591,25 +6999,22 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59">
-        <v>0.6200075</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="2">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E60">
-        <v>129.51233</v>
+        <v>129.51232999999999</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -6621,10 +7026,10 @@
         <v>2020</v>
       </c>
       <c r="I60">
-        <v>1.0067</v>
+        <v>1.0066999999999999</v>
       </c>
       <c r="J60">
-        <v>0.006700039000000001</v>
+        <v>6.7000390000000014E-3</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -6632,25 +7037,22 @@
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60">
-        <v>0.6700039000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="2">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E61">
-        <v>130.38007</v>
+        <v>130.38006999999999</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -6665,7 +7067,7 @@
         <v>1.0079</v>
       </c>
       <c r="J61">
-        <v>0.007900000000000001</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6673,25 +7075,22 @@
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="2">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E62">
-        <v>131.41006</v>
+        <v>131.41005999999999</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -6706,7 +7105,7 @@
         <v>1.0079</v>
       </c>
       <c r="J62">
-        <v>0.007900000000000001</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6714,25 +7113,22 @@
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="2">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E63">
-        <v>132.4482</v>
+        <v>132.44820000000001</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -6747,7 +7143,7 @@
         <v>1.0083</v>
       </c>
       <c r="J63">
-        <v>0.008299947</v>
+        <v>8.2999470000000002E-3</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6755,25 +7151,22 @@
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63">
-        <v>0.8299947</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="2">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E64">
-        <v>133.54752</v>
+        <v>133.54751999999999</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
@@ -6785,10 +7178,10 @@
         <v>2021</v>
       </c>
       <c r="I64">
-        <v>1.0076001</v>
+        <v>1.0076001000000001</v>
       </c>
       <c r="J64">
-        <v>0.007600069</v>
+        <v>7.6000690000000001E-3</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6796,25 +7189,22 @@
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64">
-        <v>0.7600069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="2">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E65">
-        <v>134.56248</v>
+        <v>134.56247999999999</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
@@ -6829,7 +7219,7 @@
         <v>1.0057</v>
       </c>
       <c r="J65">
-        <v>0.005699991999999999</v>
+        <v>5.6999919999999992E-3</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6837,25 +7227,22 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65">
-        <v>0.5699991999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="2">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E66">
-        <v>135.32948</v>
+        <v>135.32947999999999</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -6867,10 +7254,10 @@
         <v>2021</v>
       </c>
       <c r="I66">
-        <v>1.0056001</v>
+        <v>1.0056001000000001</v>
       </c>
       <c r="J66">
-        <v>0.005600095</v>
+        <v>5.6000950000000002E-3</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -6878,25 +7265,22 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66">
-        <v>0.5600095</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="2">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E67">
-        <v>136.08734</v>
+        <v>136.08734000000001</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -6911,7 +7295,7 @@
         <v>1.0056</v>
       </c>
       <c r="J67">
-        <v>0.0055999756</v>
+        <v>5.5999756000000003E-3</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6919,25 +7303,22 @@
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67">
-        <v>0.55999756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="2">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E68">
-        <v>136.84943</v>
+        <v>136.84943000000001</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
@@ -6952,7 +7333,7 @@
         <v>1.0065</v>
       </c>
       <c r="J68">
-        <v>0.006500005699999999</v>
+        <v>6.5000056999999986E-3</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6960,25 +7341,22 @@
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68">
-        <v>0.65000057</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="2">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E69">
-        <v>137.73895</v>
+        <v>137.73894999999999</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -6996,18 +7374,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -7022,10 +7400,10 @@
         <v>2018</v>
       </c>
       <c r="I70">
-        <v>1.0012001</v>
+        <v>1.0012000999999999</v>
       </c>
       <c r="J70">
-        <v>0.0012000799</v>
+        <v>1.2000799E-3</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -7033,22 +7411,19 @@
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70">
-        <v>0.12000799</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="2">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E71">
         <v>100.12</v>
@@ -7066,7 +7441,7 @@
         <v>1.0060927</v>
       </c>
       <c r="J71">
-        <v>0.0060926676</v>
+        <v>6.0926675999999997E-3</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -7074,22 +7449,19 @@
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71">
-        <v>0.60926676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="2">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E72">
         <v>100.73</v>
@@ -7104,10 +7476,10 @@
         <v>2018</v>
       </c>
       <c r="I72">
-        <v>1.0055594</v>
+        <v>1.0055594000000001</v>
       </c>
       <c r="J72">
-        <v>0.005559444399999999</v>
+        <v>5.5594443999999986E-3</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -7115,22 +7487,19 @@
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72">
-        <v>0.55594444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="2">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E73">
         <v>101.29</v>
@@ -7145,10 +7514,10 @@
         <v>2018</v>
       </c>
       <c r="I73">
-        <v>1.0053313</v>
+        <v>1.0053312999999999</v>
       </c>
       <c r="J73">
-        <v>0.005331278</v>
+        <v>5.3312780000000001E-3</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7156,22 +7525,19 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>0.5331278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="2">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E74">
         <v>101.83</v>
@@ -7186,10 +7552,10 @@
         <v>2019</v>
       </c>
       <c r="I74">
-        <v>1.0050083</v>
+        <v>1.0050083000000001</v>
       </c>
       <c r="J74">
-        <v>0.00500834</v>
+        <v>5.00834E-3</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7197,22 +7563,19 @@
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>0.500834</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="2">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E75">
         <v>102.34</v>
@@ -7227,10 +7590,10 @@
         <v>2019</v>
       </c>
       <c r="I75">
-        <v>1.0059606</v>
+        <v>1.0059606000000001</v>
       </c>
       <c r="J75">
-        <v>0.0059605837</v>
+        <v>5.9605837E-3</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7238,22 +7601,19 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>0.5960583699999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="2">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E76">
         <v>102.95</v>
@@ -7268,10 +7628,10 @@
         <v>2019</v>
       </c>
       <c r="I76">
-        <v>1.0047597</v>
+        <v>1.0047596999999999</v>
       </c>
       <c r="J76">
-        <v>0.0047596693</v>
+        <v>4.7596692999999999E-3</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7279,22 +7639,19 @@
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>0.47596693</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="2">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E77">
         <v>103.44</v>
@@ -7312,7 +7669,7 @@
         <v>1.0186582</v>
       </c>
       <c r="J77">
-        <v>0.018658161</v>
+        <v>1.8658160999999999E-2</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7320,22 +7677,19 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77">
-        <v>1.8658161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="2">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E78">
         <v>105.37</v>
@@ -7350,10 +7704,10 @@
         <v>2019</v>
       </c>
       <c r="I78">
-        <v>1.0074024</v>
+        <v>1.0074023999999999</v>
       </c>
       <c r="J78">
-        <v>0.00740242</v>
+        <v>7.4024199999999998E-3</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -7361,22 +7715,19 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78">
-        <v>0.740242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="2">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E79">
         <v>106.15</v>
@@ -7391,10 +7742,10 @@
         <v>2019</v>
       </c>
       <c r="I79">
-        <v>1.0167687</v>
+        <v>1.0167687000000001</v>
       </c>
       <c r="J79">
-        <v>0.016768694</v>
+        <v>1.6768694000000001E-2</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7402,22 +7753,19 @@
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79">
-        <v>1.6768694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="2">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E80">
         <v>107.93</v>
@@ -7432,10 +7780,10 @@
         <v>2019</v>
       </c>
       <c r="I80">
-        <v>1.0068563</v>
+        <v>1.0068562999999999</v>
       </c>
       <c r="J80">
-        <v>0.006856322299999999</v>
+        <v>6.8563222999999994E-3</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7443,22 +7791,19 @@
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80">
-        <v>0.68563223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="2">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E81">
         <v>108.67</v>
@@ -7473,10 +7818,10 @@
         <v>2019</v>
       </c>
       <c r="I81">
-        <v>1.008466</v>
+        <v>1.0084660000000001</v>
       </c>
       <c r="J81">
-        <v>0.008466005</v>
+        <v>8.4660050000000004E-3</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7484,22 +7829,19 @@
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81">
-        <v>0.8466005000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="2">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E82">
         <v>109.59</v>
@@ -7514,10 +7856,10 @@
         <v>2019</v>
       </c>
       <c r="I82">
-        <v>1.0053837</v>
+        <v>1.0053837000000001</v>
       </c>
       <c r="J82">
-        <v>0.00538373</v>
+        <v>5.3837299999999998E-3</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7525,22 +7867,19 @@
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82">
-        <v>0.538373</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="2">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <v>110.18</v>
@@ -7555,10 +7894,10 @@
         <v>2019</v>
       </c>
       <c r="I83">
-        <v>1.0103467</v>
+        <v>1.0103466999999999</v>
       </c>
       <c r="J83">
-        <v>0.010346651</v>
+        <v>1.0346651E-2</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -7566,22 +7905,19 @@
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83">
-        <v>1.0346651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="2">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E84">
         <v>111.32</v>
@@ -7596,10 +7932,10 @@
         <v>2019</v>
       </c>
       <c r="I84">
-        <v>1.0053</v>
+        <v>1.0053000000000001</v>
       </c>
       <c r="J84">
-        <v>0.005300045</v>
+        <v>5.3000449999999998E-3</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -7607,22 +7943,19 @@
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84">
-        <v>0.5300045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="2">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E85">
         <v>111.91</v>
@@ -7640,7 +7973,7 @@
         <v>1.0053614</v>
       </c>
       <c r="J85">
-        <v>0.005361438</v>
+        <v>5.3614379999999996E-3</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -7648,22 +7981,19 @@
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85">
-        <v>0.5361438000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="2">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E86">
         <v>112.51</v>
@@ -7681,7 +8011,7 @@
         <v>1.0101324</v>
       </c>
       <c r="J86">
-        <v>0.010132432</v>
+        <v>1.0132432E-2</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -7689,22 +8019,19 @@
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86">
-        <v>1.0132432</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="2">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E87">
         <v>113.65</v>
@@ -7722,7 +8049,7 @@
         <v>0.94606245</v>
       </c>
       <c r="J87">
-        <v>-0.05393755400000001</v>
+        <v>-5.3937554000000013E-2</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -7730,22 +8057,19 @@
       <c r="L87">
         <v>1</v>
       </c>
-      <c r="M87">
-        <v>-5.393755400000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="2">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E88">
         <v>107.52</v>
@@ -7763,7 +8087,7 @@
         <v>1.0013021</v>
       </c>
       <c r="J88">
-        <v>0.0013021231</v>
+        <v>1.3021230999999999E-3</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7771,22 +8095,19 @@
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88">
-        <v>0.13021231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="2">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E89">
         <v>107.66</v>
@@ -7801,10 +8122,10 @@
         <v>2020</v>
       </c>
       <c r="I89">
-        <v>1.0126323</v>
+        <v>1.0126322999999999</v>
       </c>
       <c r="J89">
-        <v>0.012632251</v>
+        <v>1.2632251000000001E-2</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7812,22 +8133,19 @@
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89">
-        <v>1.2632251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="2">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" t="s">
         <v>59</v>
-      </c>
-      <c r="D90" t="s">
-        <v>19</v>
       </c>
       <c r="E90">
         <v>109.02</v>
@@ -7842,10 +8160,10 @@
         <v>2020</v>
       </c>
       <c r="I90">
-        <v>1.0265089</v>
+        <v>1.0265089000000001</v>
       </c>
       <c r="J90">
-        <v>0.026508927</v>
+        <v>2.6508927000000002E-2</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7853,22 +8171,19 @@
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90">
-        <v>2.6508927</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="2">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E91">
         <v>111.91</v>
@@ -7886,7 +8201,7 @@
         <v>1.015012</v>
       </c>
       <c r="J91">
-        <v>0.015012026</v>
+        <v>1.5012025999999999E-2</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7894,22 +8209,19 @@
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91">
-        <v>1.5012026</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E92">
         <v>113.59</v>
@@ -7924,10 +8236,10 @@
         <v>2020</v>
       </c>
       <c r="I92">
-        <v>1.0142618</v>
+        <v>1.0142618000000001</v>
       </c>
       <c r="J92">
-        <v>0.014261842</v>
+        <v>1.4261842E-2</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7935,22 +8247,19 @@
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92">
-        <v>1.4261842</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="2">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E93">
         <v>115.21</v>
@@ -7968,7 +8277,7 @@
         <v>1.0110234</v>
       </c>
       <c r="J93">
-        <v>0.011023402</v>
+        <v>1.1023402E-2</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -7976,22 +8285,19 @@
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93">
-        <v>1.1023402</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="2">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E94">
         <v>116.48</v>
@@ -8009,7 +8315,7 @@
         <v>1.015625</v>
       </c>
       <c r="J94">
-        <v>0.015625</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -8017,22 +8323,19 @@
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94">
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="2">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E95">
         <v>118.3</v>
@@ -8050,7 +8353,7 @@
         <v>1.0145392</v>
       </c>
       <c r="J95">
-        <v>0.014539242</v>
+        <v>1.4539242000000001E-2</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -8058,22 +8361,19 @@
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95">
-        <v>1.4539242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="2">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E96">
         <v>120.02</v>
@@ -8088,10 +8388,10 @@
         <v>2020</v>
       </c>
       <c r="I96">
-        <v>1.046159</v>
+        <v>1.0461590000000001</v>
       </c>
       <c r="J96">
-        <v>0.04615903</v>
+        <v>4.6159029999999997E-2</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -8099,22 +8399,19 @@
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96">
-        <v>4.615902999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="2">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E97">
         <v>125.56</v>
@@ -8129,10 +8426,10 @@
         <v>2020</v>
       </c>
       <c r="I97">
-        <v>1.0365562</v>
+        <v>1.0365561999999999</v>
       </c>
       <c r="J97">
-        <v>0.036556244</v>
+        <v>3.6556244000000002E-2</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -8140,22 +8437,19 @@
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97">
-        <v>3.6556244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="2">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E98">
         <v>130.15</v>
@@ -8170,10 +8464,10 @@
         <v>2021</v>
       </c>
       <c r="I98">
-        <v>1.0259701</v>
+        <v>1.0259701000000001</v>
       </c>
       <c r="J98">
-        <v>0.025970101</v>
+        <v>2.5970100999999999E-2</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -8181,22 +8475,19 @@
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98">
-        <v>2.5970101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="2">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>63</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E99">
         <v>133.53</v>
@@ -8211,10 +8502,10 @@
         <v>2021</v>
       </c>
       <c r="I99">
-        <v>1.0875459</v>
+        <v>1.0875459000000001</v>
       </c>
       <c r="J99">
-        <v>0.08754587</v>
+        <v>8.7545869999999998E-2</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -8222,22 +8513,19 @@
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99">
-        <v>8.754586999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="2">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E100">
         <v>145.22</v>
@@ -8255,7 +8543,7 @@
         <v>1.0006887</v>
       </c>
       <c r="J100">
-        <v>0.0006886720699999999</v>
+        <v>6.8867206999999992E-4</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -8263,22 +8551,19 @@
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100">
-        <v>0.06886720699999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="2">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E101">
         <v>145.32</v>
@@ -8296,7 +8581,7 @@
         <v>1.0206289</v>
       </c>
       <c r="J101">
-        <v>0.02062893</v>
+        <v>2.062893E-2</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -8304,25 +8589,22 @@
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101">
-        <v>2.062893</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="2">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E102">
-        <v>148.31781</v>
+        <v>148.31781000000001</v>
       </c>
       <c r="F102" t="s">
         <v>7</v>
@@ -8337,7 +8619,7 @@
         <v>1.020629</v>
       </c>
       <c r="J102">
-        <v>0.020629048</v>
+        <v>2.0629048000000001E-2</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -8345,25 +8627,22 @@
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102">
-        <v>2.0629048</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="2">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E103">
-        <v>151.37746</v>
+        <v>151.37746000000001</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
@@ -8384,4 +8663,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="59b1383659f2165d583401089bbb2cdd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76bf99ca48259c387bedcb1bc0ef443" ns2:_="">
+    <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee2906f1-4e2b-432c-9c12-773b8d680c96" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D942E0-5EA4-445B-BF3B-8887F25F455F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C07631-9139-4663-9005-0E417ACD35E3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC56482C-4326-4B7A-B8F1-F626E51F1056}"/>
 </file>